--- a/export/debug.xlsx
+++ b/export/debug.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="117">
   <si>
     <t>EMPLOYÉ</t>
   </si>
@@ -29,55 +29,310 @@
     <t>T. SEM.</t>
   </si>
   <si>
+    <t>DÉPÔT QUAI</t>
+  </si>
+  <si>
+    <t>CHARGT DÉCHARGT</t>
+  </si>
+  <si>
+    <t>ESSAIS NETTOYAGE DUBUS</t>
+  </si>
+  <si>
+    <t>PANNE DUBUS</t>
+  </si>
+  <si>
+    <t>MAINTENANCE</t>
+  </si>
+  <si>
+    <t>RANGMT NETTOYAGE</t>
+  </si>
+  <si>
+    <t>CALES BOIS</t>
+  </si>
+  <si>
+    <t>AIDE DANIEL</t>
+  </si>
+  <si>
+    <t>VISITE MÉDICALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLIAGE </t>
+  </si>
+  <si>
+    <t>AUTRE</t>
+  </si>
+  <si>
+    <t>BELVÉDÈRE</t>
+  </si>
+  <si>
+    <t>BT115</t>
+  </si>
+  <si>
+    <t>BT131</t>
+  </si>
+  <si>
+    <t>BT134</t>
+  </si>
+  <si>
+    <t>BT144</t>
+  </si>
+  <si>
+    <t>BT159</t>
+  </si>
+  <si>
+    <t>BT160</t>
+  </si>
+  <si>
+    <t>BT163</t>
+  </si>
+  <si>
+    <t>BT171</t>
+  </si>
+  <si>
+    <t>BT172</t>
+  </si>
+  <si>
+    <t>CARAC</t>
+  </si>
+  <si>
+    <t>CLÉRET</t>
+  </si>
+  <si>
+    <t>CLÉRET 2</t>
+  </si>
+  <si>
+    <t>JEANNE D'ARC</t>
+  </si>
+  <si>
+    <t>LA RAPÉE</t>
+  </si>
+  <si>
+    <t>PD102</t>
+  </si>
+  <si>
+    <t>PD106</t>
+  </si>
+  <si>
+    <t>PD117</t>
+  </si>
+  <si>
+    <t>PD13</t>
+  </si>
+  <si>
+    <t>PD16</t>
+  </si>
+  <si>
+    <t>PD18</t>
+  </si>
+  <si>
+    <t>PD36</t>
+  </si>
+  <si>
+    <t>PD38</t>
+  </si>
+  <si>
+    <t>PD39</t>
+  </si>
+  <si>
+    <t>PD40</t>
+  </si>
+  <si>
+    <t>PD41</t>
+  </si>
+  <si>
+    <t>PD42</t>
+  </si>
+  <si>
+    <t>PD466</t>
+  </si>
+  <si>
+    <t>PD467</t>
+  </si>
+  <si>
+    <t>PD58</t>
+  </si>
+  <si>
+    <t>STEPHENSON</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t>-----</t>
+  </si>
+  <si>
+    <t>------</t>
+  </si>
+  <si>
+    <t>BT16</t>
+  </si>
+  <si>
+    <t>BT106</t>
+  </si>
+  <si>
+    <t>BT114</t>
+  </si>
+  <si>
+    <t>BT115*</t>
+  </si>
+  <si>
+    <t>BT120</t>
+  </si>
+  <si>
+    <t>BT121</t>
+  </si>
+  <si>
+    <t>BT126</t>
+  </si>
+  <si>
+    <t>BT131*</t>
+  </si>
+  <si>
+    <t>BT134*</t>
+  </si>
+  <si>
+    <t>BT143</t>
+  </si>
+  <si>
+    <t>BT144*</t>
+  </si>
+  <si>
+    <t>BT145</t>
+  </si>
+  <si>
+    <t>BT150</t>
+  </si>
+  <si>
+    <t>BT151</t>
+  </si>
+  <si>
+    <t>BT152</t>
+  </si>
+  <si>
+    <t>BT153</t>
+  </si>
+  <si>
+    <t>BT154</t>
+  </si>
+  <si>
+    <t>BT156</t>
+  </si>
+  <si>
+    <t>BT157</t>
+  </si>
+  <si>
+    <t>BT158</t>
+  </si>
+  <si>
+    <t>BT159*</t>
+  </si>
+  <si>
+    <t>BT160*</t>
+  </si>
+  <si>
+    <t>BT161</t>
+  </si>
+  <si>
+    <t>BT163*</t>
+  </si>
+  <si>
+    <t>BT166</t>
+  </si>
+  <si>
+    <t>BT169</t>
+  </si>
+  <si>
+    <t>BT170</t>
+  </si>
+  <si>
+    <t>BT171*</t>
+  </si>
+  <si>
+    <t>BT172*</t>
+  </si>
+  <si>
+    <t>BT173</t>
+  </si>
+  <si>
+    <t>BT175</t>
+  </si>
+  <si>
+    <t>BT178</t>
+  </si>
+  <si>
+    <t>BT179</t>
+  </si>
+  <si>
+    <t>BT182</t>
+  </si>
+  <si>
+    <t>BT183</t>
+  </si>
+  <si>
+    <t>TEST BASCULANT</t>
+  </si>
+  <si>
+    <t>BT184</t>
+  </si>
+  <si>
+    <t>BT141</t>
+  </si>
+  <si>
+    <t>BT122</t>
+  </si>
+  <si>
+    <t>--------------------</t>
+  </si>
+  <si>
+    <t>PD152</t>
+  </si>
+  <si>
     <t>BT14745</t>
   </si>
   <si>
-    <t>BT150</t>
+    <t>BT785</t>
+  </si>
+  <si>
+    <t>BT75</t>
+  </si>
+  <si>
+    <t>BT45</t>
+  </si>
+  <si>
+    <t>BT85</t>
+  </si>
+  <si>
+    <t>BT7</t>
+  </si>
+  <si>
+    <t>BT2</t>
   </si>
   <si>
     <t>BT17</t>
   </si>
   <si>
-    <t>BT175</t>
-  </si>
-  <si>
-    <t>BT2</t>
-  </si>
-  <si>
     <t>BT23</t>
   </si>
   <si>
+    <t>BT56</t>
+  </si>
+  <si>
+    <t>BT74</t>
+  </si>
+  <si>
+    <t>BT63</t>
+  </si>
+  <si>
+    <t>BT47</t>
+  </si>
+  <si>
     <t>BT42</t>
-  </si>
-  <si>
-    <t>BT45</t>
-  </si>
-  <si>
-    <t>BT47</t>
-  </si>
-  <si>
-    <t>BT56</t>
-  </si>
-  <si>
-    <t>BT63</t>
-  </si>
-  <si>
-    <t>BT7</t>
-  </si>
-  <si>
-    <t>BT74</t>
-  </si>
-  <si>
-    <t>BT75</t>
-  </si>
-  <si>
-    <t>BT785</t>
-  </si>
-  <si>
-    <t>BT85</t>
-  </si>
-  <si>
-    <t>PD152</t>
   </si>
   <si>
     <t>T. REF.</t>
@@ -152,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:DF20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -165,23 +420,108 @@
     <col min="5" max="5" width="7.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="1.03515625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="6.99609375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="8.87890625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="6.6484375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="5.53515625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="6.6484375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="4.41796875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="5.53515625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="5.53515625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="5.53515625" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="5.53515625" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="5.53515625" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="5.53515625" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="4.41796875" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="5.53515625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="5.53515625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.34375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="18.90234375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="25.25" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.2421875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="14.671875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="20.6640625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="11.20703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="12.38671875" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="16.35546875" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="7.8828125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="7.0625" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="11.25" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="6.6484375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="6.6484375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="5.53515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="6.87109375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="7.12109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="7.546875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="9.16015625" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="13.9765625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="9.484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="6.87109375" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="6.87109375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="6.87109375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="5.75390625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="5.75390625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="5.75390625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="5.75390625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="5.75390625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="5.75390625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="5.75390625" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="5.75390625" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" width="5.75390625" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" width="6.87109375" customWidth="true" bestFit="true"/>
+    <col min="47" max="47" width="6.87109375" customWidth="true" bestFit="true"/>
+    <col min="48" max="48" width="5.75390625" customWidth="true" bestFit="true"/>
+    <col min="49" max="49" width="13.08203125" customWidth="true" bestFit="true"/>
+    <col min="50" max="50" width="2.3828125" customWidth="true" bestFit="true"/>
+    <col min="51" max="51" width="3.0546875" customWidth="true" bestFit="true"/>
+    <col min="52" max="52" width="3.73046875" customWidth="true" bestFit="true"/>
+    <col min="53" max="53" width="4.40234375" customWidth="true" bestFit="true"/>
+    <col min="54" max="54" width="5.078125" customWidth="true" bestFit="true"/>
+    <col min="55" max="55" width="5.53515625" customWidth="true" bestFit="true"/>
+    <col min="56" max="56" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="57" max="57" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="58" max="58" width="7.74609375" customWidth="true" bestFit="true"/>
+    <col min="59" max="59" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="60" max="60" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="61" max="61" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="62" max="62" width="7.74609375" customWidth="true" bestFit="true"/>
+    <col min="63" max="63" width="7.74609375" customWidth="true" bestFit="true"/>
+    <col min="64" max="64" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="65" max="65" width="7.74609375" customWidth="true" bestFit="true"/>
+    <col min="66" max="66" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="67" max="67" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="68" max="68" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="69" max="69" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="70" max="70" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="71" max="71" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="72" max="72" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="73" max="73" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="74" max="74" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="75" max="75" width="7.74609375" customWidth="true" bestFit="true"/>
+    <col min="76" max="76" width="7.74609375" customWidth="true" bestFit="true"/>
+    <col min="77" max="77" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="78" max="78" width="7.74609375" customWidth="true" bestFit="true"/>
+    <col min="79" max="79" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="80" max="80" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="81" max="81" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="82" max="82" width="7.74609375" customWidth="true" bestFit="true"/>
+    <col min="83" max="83" width="7.74609375" customWidth="true" bestFit="true"/>
+    <col min="84" max="84" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="85" max="85" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="86" max="86" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="87" max="87" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="88" max="88" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="89" max="89" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="90" max="90" width="16.515625" customWidth="true" bestFit="true"/>
+    <col min="91" max="91" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="92" max="92" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="93" max="93" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="94" max="94" width="14.5078125" customWidth="true" bestFit="true"/>
+    <col min="95" max="95" width="6.87109375" customWidth="true" bestFit="true"/>
+    <col min="96" max="96" width="8.87890625" customWidth="true" bestFit="true"/>
+    <col min="97" max="97" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="98" max="98" width="5.53515625" customWidth="true" bestFit="true"/>
+    <col min="99" max="99" width="5.53515625" customWidth="true" bestFit="true"/>
+    <col min="100" max="100" width="5.53515625" customWidth="true" bestFit="true"/>
+    <col min="101" max="101" width="4.41796875" customWidth="true" bestFit="true"/>
+    <col min="102" max="102" width="4.41796875" customWidth="true" bestFit="true"/>
+    <col min="103" max="103" width="5.53515625" customWidth="true" bestFit="true"/>
+    <col min="104" max="104" width="5.53515625" customWidth="true" bestFit="true"/>
+    <col min="105" max="105" width="5.53515625" customWidth="true" bestFit="true"/>
+    <col min="106" max="106" width="5.53515625" customWidth="true" bestFit="true"/>
+    <col min="107" max="107" width="5.53515625" customWidth="true" bestFit="true"/>
+    <col min="108" max="108" width="5.53515625" customWidth="true" bestFit="true"/>
+    <col min="109" max="109" width="5.53515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -257,6 +597,261 @@
       <c r="X1" t="s">
         <v>21</v>
       </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>75</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -278,71 +873,314 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG2" t="n">
         <v>4.0</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="CH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP2"/>
+      <c r="CQ2" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>475.0</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="CY2" t="n">
         <v>57.0</v>
       </c>
-      <c r="K2" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="CZ2" t="n">
         <v>5.5</v>
       </c>
-      <c r="N2" t="n">
+      <c r="DA2" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="DE2" t="n">
         <v>25.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>475.0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>45.0</v>
       </c>
     </row>
     <row r="3"/>
     <row r="4"/>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="D5" t="n">
         <v>45.0</v>
@@ -404,8 +1242,263 @@
       <c r="W5" t="s">
         <v>1</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ5" t="n">
         <v>45.0</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
@@ -427,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="D7" t="n">
         <v>520.0</v>
@@ -441,55 +1534,310 @@
       <c r="G7" t="s">
         <v>1</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1</v>
+      </c>
+      <c r="X7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CR7" t="n">
         <v>4.0</v>
       </c>
-      <c r="I7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O7" t="s">
-        <v>1</v>
-      </c>
-      <c r="P7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R7" t="s">
-        <v>1</v>
-      </c>
-      <c r="S7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T7" t="s">
-        <v>1</v>
-      </c>
-      <c r="U7" t="n">
+      <c r="CS7" t="n">
+        <v>475.0</v>
+      </c>
+      <c r="CT7" t="n">
         <v>41.0</v>
       </c>
-      <c r="V7" t="n">
-        <v>475.0</v>
-      </c>
-      <c r="W7" t="s">
-        <v>1</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="CU7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA7" t="s">
+        <v>1</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>1</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>1</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>1</v>
+      </c>
+      <c r="DE7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -501,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="D8" t="n">
         <v>302.0</v>
@@ -521,49 +1869,304 @@
       <c r="I8" t="s">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1</v>
+      </c>
+      <c r="X8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="CY8" t="n">
         <v>57.0</v>
       </c>
-      <c r="K8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="P8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>1</v>
-      </c>
-      <c r="R8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="T8" t="s">
-        <v>1</v>
-      </c>
-      <c r="U8" t="s">
-        <v>1</v>
-      </c>
-      <c r="V8" t="s">
-        <v>1</v>
-      </c>
-      <c r="W8" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="CZ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DC8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DD8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DE8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -575,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -586,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
@@ -609,13 +2212,13 @@
     <row r="12"/>
     <row r="13">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="D13" t="n">
         <v>8.0</v>
@@ -632,52 +2235,307 @@
       <c r="H13" t="s">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
+        <v>1</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO13" t="n">
         <v>2.5</v>
       </c>
-      <c r="J13" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="BP13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CZ13" t="n">
         <v>5.5</v>
       </c>
-      <c r="N13" t="s">
-        <v>1</v>
-      </c>
-      <c r="O13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>1</v>
-      </c>
-      <c r="R13" t="s">
-        <v>1</v>
-      </c>
-      <c r="S13" t="s">
-        <v>1</v>
-      </c>
-      <c r="T13" t="s">
-        <v>1</v>
-      </c>
-      <c r="U13" t="s">
-        <v>1</v>
-      </c>
-      <c r="V13" t="s">
-        <v>1</v>
-      </c>
-      <c r="W13" t="s">
-        <v>1</v>
-      </c>
-      <c r="X13" t="s">
+      <c r="DA13" t="s">
+        <v>1</v>
+      </c>
+      <c r="DB13" t="s">
+        <v>1</v>
+      </c>
+      <c r="DC13" t="s">
+        <v>1</v>
+      </c>
+      <c r="DD13" t="s">
+        <v>1</v>
+      </c>
+      <c r="DE13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -689,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="D14" t="n">
         <v>143.0</v>
@@ -730,28 +2588,283 @@
       <c r="P14" t="s">
         <v>1</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1</v>
+      </c>
+      <c r="X14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CR14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CV14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CW14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CY14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CZ14" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA14" t="n">
         <v>48.0</v>
       </c>
-      <c r="R14" t="n">
+      <c r="DB14" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="DC14" t="n">
         <v>10.0</v>
       </c>
-      <c r="S14" t="s">
-        <v>1</v>
-      </c>
-      <c r="T14" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="U14" t="s">
-        <v>1</v>
-      </c>
-      <c r="V14" t="s">
-        <v>1</v>
-      </c>
-      <c r="W14" t="s">
-        <v>1</v>
-      </c>
-      <c r="X14" t="s">
+      <c r="DD14" t="s">
+        <v>1</v>
+      </c>
+      <c r="DE14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -763,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="D15" t="n">
         <v>110.0</v>
@@ -795,38 +2908,293 @@
       <c r="M15" t="s">
         <v>1</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1</v>
+      </c>
+      <c r="X15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CV15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CZ15" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA15" t="s">
+        <v>1</v>
+      </c>
+      <c r="DB15" t="s">
+        <v>1</v>
+      </c>
+      <c r="DC15" t="s">
+        <v>1</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="DE15" t="n">
         <v>25.0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>1</v>
-      </c>
-      <c r="R15" t="s">
-        <v>1</v>
-      </c>
-      <c r="S15" t="s">
-        <v>1</v>
-      </c>
-      <c r="T15" t="s">
-        <v>1</v>
-      </c>
-      <c r="U15" t="s">
-        <v>1</v>
-      </c>
-      <c r="V15" t="s">
-        <v>1</v>
-      </c>
-      <c r="W15" t="s">
-        <v>1</v>
-      </c>
-      <c r="X15" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -837,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17">
@@ -848,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18">
@@ -859,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19">
@@ -870,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>

--- a/export/debug.xlsx
+++ b/export/debug.xlsx
@@ -68,196 +68,204 @@
     <t>BELVÉDÈRE</t>
   </si>
   <si>
+    <t>BT115
+PARIS DAUPHINE</t>
+  </si>
+  <si>
+    <t>BT131 REPRISE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT134
+LAYANI </t>
+  </si>
+  <si>
+    <t>BT144 J.D'ARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT159 </t>
+  </si>
+  <si>
+    <t>BT160
+UFR 
+ANGERS</t>
+  </si>
+  <si>
+    <t>BT163 TOULOUSE</t>
+  </si>
+  <si>
+    <t>BT171 BESSIER</t>
+  </si>
+  <si>
+    <t>BT172
+TOUR NEPTUNE</t>
+  </si>
+  <si>
+    <t>CARAC</t>
+  </si>
+  <si>
+    <t>CLÉRET</t>
+  </si>
+  <si>
+    <t>CLÉRET 2</t>
+  </si>
+  <si>
+    <t>JEANNE D'ARC</t>
+  </si>
+  <si>
+    <t>LA RAPÉE</t>
+  </si>
+  <si>
+    <t>PD102 LAYANI</t>
+  </si>
+  <si>
+    <t>PD106 TRAPPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD117
+CARAC </t>
+  </si>
+  <si>
+    <t>PD13 NANTES</t>
+  </si>
+  <si>
+    <t>PD16
+LA RAPÉE</t>
+  </si>
+  <si>
+    <t>PD18 GUYANCOURT</t>
+  </si>
+  <si>
+    <t>PD36
+R. ALBERT</t>
+  </si>
+  <si>
+    <t>PD38 BESSIER</t>
+  </si>
+  <si>
+    <t>PD39 LIMOURS</t>
+  </si>
+  <si>
+    <t>PD40 BESSIER</t>
+  </si>
+  <si>
+    <t>PD41 BESSIER</t>
+  </si>
+  <si>
+    <t>PD42 BESSIER</t>
+  </si>
+  <si>
+    <t>PD466 COMMYNES</t>
+  </si>
+  <si>
+    <t>PD467 COMMYNES</t>
+  </si>
+  <si>
+    <t>PD58 CLÉRET</t>
+  </si>
+  <si>
+    <t>STEPHENSON</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>X*</t>
+  </si>
+  <si>
+    <t>X**</t>
+  </si>
+  <si>
+    <t>X***</t>
+  </si>
+  <si>
+    <t>X****</t>
+  </si>
+  <si>
+    <t>BT16</t>
+  </si>
+  <si>
+    <t>BT106</t>
+  </si>
+  <si>
+    <t>BT114</t>
+  </si>
+  <si>
     <t>BT115</t>
   </si>
   <si>
+    <t>BT120</t>
+  </si>
+  <si>
+    <t>BT121</t>
+  </si>
+  <si>
+    <t>BT126</t>
+  </si>
+  <si>
     <t>BT131</t>
   </si>
   <si>
     <t>BT134</t>
   </si>
   <si>
+    <t>BT143</t>
+  </si>
+  <si>
     <t>BT144</t>
   </si>
   <si>
+    <t>BT145</t>
+  </si>
+  <si>
+    <t>BT150</t>
+  </si>
+  <si>
+    <t>BT151</t>
+  </si>
+  <si>
+    <t>BT152</t>
+  </si>
+  <si>
+    <t>BT153</t>
+  </si>
+  <si>
+    <t>BT154</t>
+  </si>
+  <si>
+    <t>BT156</t>
+  </si>
+  <si>
+    <t>BT157</t>
+  </si>
+  <si>
+    <t>BT158</t>
+  </si>
+  <si>
     <t>BT159</t>
   </si>
   <si>
     <t>BT160</t>
   </si>
   <si>
+    <t>BT161</t>
+  </si>
+  <si>
     <t>BT163</t>
   </si>
   <si>
+    <t>BT166</t>
+  </si>
+  <si>
+    <t>BT169</t>
+  </si>
+  <si>
+    <t>BT170</t>
+  </si>
+  <si>
     <t>BT171</t>
   </si>
   <si>
     <t>BT172</t>
-  </si>
-  <si>
-    <t>CARAC</t>
-  </si>
-  <si>
-    <t>CLÉRET</t>
-  </si>
-  <si>
-    <t>CLÉRET 2</t>
-  </si>
-  <si>
-    <t>JEANNE D'ARC</t>
-  </si>
-  <si>
-    <t>LA RAPÉE</t>
-  </si>
-  <si>
-    <t>PD102</t>
-  </si>
-  <si>
-    <t>PD106</t>
-  </si>
-  <si>
-    <t>PD117</t>
-  </si>
-  <si>
-    <t>PD13</t>
-  </si>
-  <si>
-    <t>PD16</t>
-  </si>
-  <si>
-    <t>PD18</t>
-  </si>
-  <si>
-    <t>PD36</t>
-  </si>
-  <si>
-    <t>PD38</t>
-  </si>
-  <si>
-    <t>PD39</t>
-  </si>
-  <si>
-    <t>PD40</t>
-  </si>
-  <si>
-    <t>PD41</t>
-  </si>
-  <si>
-    <t>PD42</t>
-  </si>
-  <si>
-    <t>PD466</t>
-  </si>
-  <si>
-    <t>PD467</t>
-  </si>
-  <si>
-    <t>PD58</t>
-  </si>
-  <si>
-    <t>STEPHENSON</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>----</t>
-  </si>
-  <si>
-    <t>-----</t>
-  </si>
-  <si>
-    <t>------</t>
-  </si>
-  <si>
-    <t>BT16</t>
-  </si>
-  <si>
-    <t>BT106</t>
-  </si>
-  <si>
-    <t>BT114</t>
-  </si>
-  <si>
-    <t>BT115*</t>
-  </si>
-  <si>
-    <t>BT120</t>
-  </si>
-  <si>
-    <t>BT121</t>
-  </si>
-  <si>
-    <t>BT126</t>
-  </si>
-  <si>
-    <t>BT131*</t>
-  </si>
-  <si>
-    <t>BT134*</t>
-  </si>
-  <si>
-    <t>BT143</t>
-  </si>
-  <si>
-    <t>BT144*</t>
-  </si>
-  <si>
-    <t>BT145</t>
-  </si>
-  <si>
-    <t>BT150</t>
-  </si>
-  <si>
-    <t>BT151</t>
-  </si>
-  <si>
-    <t>BT152</t>
-  </si>
-  <si>
-    <t>BT153</t>
-  </si>
-  <si>
-    <t>BT154</t>
-  </si>
-  <si>
-    <t>BT156</t>
-  </si>
-  <si>
-    <t>BT157</t>
-  </si>
-  <si>
-    <t>BT158</t>
-  </si>
-  <si>
-    <t>BT159*</t>
-  </si>
-  <si>
-    <t>BT160*</t>
-  </si>
-  <si>
-    <t>BT161</t>
-  </si>
-  <si>
-    <t>BT163*</t>
-  </si>
-  <si>
-    <t>BT166</t>
-  </si>
-  <si>
-    <t>BT169</t>
-  </si>
-  <si>
-    <t>BT170</t>
-  </si>
-  <si>
-    <t>BT171*</t>
-  </si>
-  <si>
-    <t>BT172*</t>
   </si>
   <si>
     <t>BT173</t>
@@ -435,52 +443,52 @@
     <col min="17" max="17" width="7.8828125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="7.0625" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="11.25" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="6.6484375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="6.6484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="6.6484375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="6.6484375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="6.6484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="6.6484375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.6484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.6484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="16.296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.38671875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="8.05078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="13.8828125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="7.1484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="8.39453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="16.96484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="14.26171875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="15.27734375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="7.12109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="7.546875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="9.16015625" customWidth="true" bestFit="true"/>
     <col min="32" max="32" width="13.9765625" customWidth="true" bestFit="true"/>
     <col min="33" max="33" width="9.484375" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="6.87109375" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="6.87109375" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" width="6.87109375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="5.75390625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="5.75390625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="5.75390625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="5.75390625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="5.75390625" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="5.75390625" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="5.75390625" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="5.75390625" customWidth="true" bestFit="true"/>
-    <col min="45" max="45" width="5.75390625" customWidth="true" bestFit="true"/>
-    <col min="46" max="46" width="6.87109375" customWidth="true" bestFit="true"/>
-    <col min="47" max="47" width="6.87109375" customWidth="true" bestFit="true"/>
-    <col min="48" max="48" width="5.75390625" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="13.88671875" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="7.62109375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="13.5234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="9.484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="19.125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="10.01953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="13.3671875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="14.6875" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="13.3671875" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="13.3671875" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" width="13.3671875" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" width="18.3359375" customWidth="true" bestFit="true"/>
+    <col min="47" max="47" width="18.3359375" customWidth="true" bestFit="true"/>
+    <col min="48" max="48" width="12.765625" customWidth="true" bestFit="true"/>
     <col min="49" max="49" width="13.08203125" customWidth="true" bestFit="true"/>
-    <col min="50" max="50" width="2.3828125" customWidth="true" bestFit="true"/>
-    <col min="51" max="51" width="3.0546875" customWidth="true" bestFit="true"/>
-    <col min="52" max="52" width="3.73046875" customWidth="true" bestFit="true"/>
-    <col min="53" max="53" width="4.40234375" customWidth="true" bestFit="true"/>
-    <col min="54" max="54" width="5.078125" customWidth="true" bestFit="true"/>
+    <col min="50" max="50" width="2.17578125" customWidth="true" bestFit="true"/>
+    <col min="51" max="51" width="3.2734375" customWidth="true" bestFit="true"/>
+    <col min="52" max="52" width="4.3671875" customWidth="true" bestFit="true"/>
+    <col min="53" max="53" width="5.46484375" customWidth="true" bestFit="true"/>
+    <col min="54" max="54" width="6.55859375" customWidth="true" bestFit="true"/>
     <col min="55" max="55" width="5.53515625" customWidth="true" bestFit="true"/>
     <col min="56" max="56" width="6.6484375" customWidth="true" bestFit="true"/>
     <col min="57" max="57" width="6.6484375" customWidth="true" bestFit="true"/>
-    <col min="58" max="58" width="7.74609375" customWidth="true" bestFit="true"/>
+    <col min="58" max="58" width="6.6484375" customWidth="true" bestFit="true"/>
     <col min="59" max="59" width="6.6484375" customWidth="true" bestFit="true"/>
     <col min="60" max="60" width="6.6484375" customWidth="true" bestFit="true"/>
     <col min="61" max="61" width="6.6484375" customWidth="true" bestFit="true"/>
-    <col min="62" max="62" width="7.74609375" customWidth="true" bestFit="true"/>
-    <col min="63" max="63" width="7.74609375" customWidth="true" bestFit="true"/>
+    <col min="62" max="62" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="63" max="63" width="6.6484375" customWidth="true" bestFit="true"/>
     <col min="64" max="64" width="6.6484375" customWidth="true" bestFit="true"/>
-    <col min="65" max="65" width="7.74609375" customWidth="true" bestFit="true"/>
+    <col min="65" max="65" width="6.6484375" customWidth="true" bestFit="true"/>
     <col min="66" max="66" width="6.6484375" customWidth="true" bestFit="true"/>
     <col min="67" max="67" width="6.6484375" customWidth="true" bestFit="true"/>
     <col min="68" max="68" width="6.6484375" customWidth="true" bestFit="true"/>
@@ -490,15 +498,15 @@
     <col min="72" max="72" width="6.6484375" customWidth="true" bestFit="true"/>
     <col min="73" max="73" width="6.6484375" customWidth="true" bestFit="true"/>
     <col min="74" max="74" width="6.6484375" customWidth="true" bestFit="true"/>
-    <col min="75" max="75" width="7.74609375" customWidth="true" bestFit="true"/>
-    <col min="76" max="76" width="7.74609375" customWidth="true" bestFit="true"/>
+    <col min="75" max="75" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="76" max="76" width="6.6484375" customWidth="true" bestFit="true"/>
     <col min="77" max="77" width="6.6484375" customWidth="true" bestFit="true"/>
-    <col min="78" max="78" width="7.74609375" customWidth="true" bestFit="true"/>
+    <col min="78" max="78" width="6.6484375" customWidth="true" bestFit="true"/>
     <col min="79" max="79" width="6.6484375" customWidth="true" bestFit="true"/>
     <col min="80" max="80" width="6.6484375" customWidth="true" bestFit="true"/>
     <col min="81" max="81" width="6.6484375" customWidth="true" bestFit="true"/>
-    <col min="82" max="82" width="7.74609375" customWidth="true" bestFit="true"/>
-    <col min="83" max="83" width="7.74609375" customWidth="true" bestFit="true"/>
+    <col min="82" max="82" width="6.6484375" customWidth="true" bestFit="true"/>
+    <col min="83" max="83" width="6.6484375" customWidth="true" bestFit="true"/>
     <col min="84" max="84" width="6.6484375" customWidth="true" bestFit="true"/>
     <col min="85" max="85" width="6.6484375" customWidth="true" bestFit="true"/>
     <col min="86" max="86" width="6.6484375" customWidth="true" bestFit="true"/>
@@ -1013,11 +1021,21 @@
       <c r="AW4" t="n">
         <v>0.0</v>
       </c>
-      <c r="AX4"/>
-      <c r="AY4"/>
-      <c r="AZ4"/>
-      <c r="BA4"/>
-      <c r="BB4"/>
+      <c r="AX4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.0</v>
+      </c>
       <c r="BC4" t="n">
         <v>0.0</v>
       </c>
